--- a/0311/表格資料.xlsx
+++ b/0311/表格資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\SPSS_R26\範例\Ch04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPSS_0304\0311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8317F4-E1EB-45A4-951C-F740DB133CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{768BE675-D478-4B15-86CD-DEBDD7708AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{E1F5E5D3-BE50-4BA4-A5EA-79DF4A4E12AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E8851B4-F49E-496B-A4FD-6F45578587DC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -556,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF80705B-DC9A-4E7B-85D8-ED1F26A5636E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA45FDB4-B566-40C6-8DF6-BDB413351095}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -729,5 +732,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>